--- a/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
@@ -451,351 +451,464 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5489</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>050018</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>博时行业轮动混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>93.84</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>5.16</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>007234</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>89.42</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>3.38</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160526</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000520</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上银新兴价值成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>84.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001278</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004138</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上银鑫达灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>81.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007393</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>上银未来生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>62.56</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009740</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>71.92</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009741</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>71.92</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -805,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +939,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +969,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004138</t>
+          <t>160526</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上银鑫达灵活配置混合</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9265</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1007,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001009</t>
+          <t>001236</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根安全战略股票</t>
+          <t>博时丝路主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.02</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5606</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -902,25 +1045,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001236</t>
+          <t>009740</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时丝路主题股票A</t>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.60</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5094</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -930,26 +1083,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002556</t>
+          <t>000520</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时丝路主题股票C</t>
+          <t>上银新兴价值成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.60</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>72.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -958,26 +1121,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009740</t>
+          <t>001009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时研究臻选三年持有期灵活配置混合A</t>
+          <t>上投摩根安全战略股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -986,26 +1159,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009741</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
+          <t>前海开源清洁能源主题精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1014,26 +1197,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002666</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>70.60</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1042,25 +1235,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002667</t>
+          <t>002666</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>70.60</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>8.18</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1070,26 +1273,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000520</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上银新兴价值成长混合</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>72.69</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1098,26 +1311,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>510890</t>
+          <t>004138</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>兴业上证红利低波动ETF</t>
+          <t>上银鑫达灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>96.60</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1126,26 +1349,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>002137</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合A</t>
+          <t>诺安利鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>37.28</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1154,26 +1387,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>009741</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合C</t>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>37.28</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1182,26 +1425,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>002556</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>博时丝路主题股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1210,26 +1463,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>前海开源清洁能源主题精选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1238,26 +1501,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>160526</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1266,26 +1539,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007234</t>
+          <t>510890</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+          <t>兴业上证红利低波动ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1294,25 +1577,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002137</t>
+          <t>002667</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>诺安利鑫灵活配置混合</t>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>63.68</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1322,26 +1615,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>002908</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>富国睿利定期开放混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1350,26 +1653,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002908</t>
+          <t>007234</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>富国睿利定期开放混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>28.28</t>
-        </is>
-      </c>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1661,7 +1662,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>91.20</t>
@@ -1677,6 +1677,930 @@
       </c>
       <c r="H20" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9356</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6572</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3748</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2677</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002813</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时颐泰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>45.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002814</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时颐泰混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2585,7 +2586,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>80.11</t>
@@ -2601,6 +2601,2378 @@
       </c>
       <c r="H24" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0052</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7985</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1559</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5321</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1105</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0264</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9583</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5560</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4519</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>69.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005371</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005372</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4978,4 +4979,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>61</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4987,7 +4988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4998,17 +4999,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5018,14 +5039,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>61</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.94</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5034,14 +5077,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.48</v>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0029</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5050,14 +5115,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.05</v>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5383</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5066,13 +5153,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5500,7 +5501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5511,17 +5512,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5531,14 +5552,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.16</v>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3803</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5547,14 +5590,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>61</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.94</v>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2458</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5563,14 +5628,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.48</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6985</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5579,14 +5666,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.05</v>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5595,13 +5704,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6127,7 +6128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6138,17 +6139,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6158,14 +6179,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.12</v>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1806</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6174,14 +6217,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.16</v>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8601</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6190,14 +6255,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>61</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.94</v>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8203</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6206,14 +6293,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.48</v>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7877</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6222,14 +6331,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.05</v>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -6238,13 +6369,939 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4099</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3928</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>61</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>6.42</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>5.12</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>4.16</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>23.94</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D6" t="n">
-        <v>4.48</v>
+        <v>23.94</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>3.05</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.83</v>
       </c>
     </row>
@@ -600,6 +617,934 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6317</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3918</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8263</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5835</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4382</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4233</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3026</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>52.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013329</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实全球价值股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013328</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实全球价值股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>57.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014584</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,7 +2584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2265,7 +3210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2777,7 +3722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5149,7 +6094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6072,7 +7017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6843,7 +7788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
+++ b/数据整理/stocks/A股/上证主板/600025-华能水电.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>8.19</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>6.42</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>5.12</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>4.16</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>23.94</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
-        <v>4.48</v>
+        <v>23.94</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>3.05</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,497 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5489</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1101,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6710</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5685</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5187</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安盈债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3522</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016513</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商安嘉债券</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>017090</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1544,7 +2996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2584,7 +4036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3210,7 +4662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3722,7 +5174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6094,7 +7546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7017,7 +8469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7786,471 +9238,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160526</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5489</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009740</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>71.92</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3074</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000520</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上银新兴价值成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.47</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2313</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004138</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上银鑫达灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2306</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1961</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>050018</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1207</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001278</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0804</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007393</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上银未来生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>62.56</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0734</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009741</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>71.92</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007234</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>